--- a/app-store-reviews/Calm (Meditation App) - App Store Reviews.xlsx
+++ b/app-store-reviews/Calm (Meditation App) - App Store Reviews.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mesrurebeybinesen/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafa/Projects/nlp-datasets/app-store-reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF84688B-1A8A-7641-925E-1BA0222E036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBD1A11-324B-354E-8A03-1E0E9D5BC9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Reviews" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reviews!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reviews!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -772,11 +772,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -784,7 +782,7 @@
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,1200 +790,800 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="4">
         <v>44931</v>
       </c>
-      <c r="C2">
-        <f>LEN(A2)</f>
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>44928</v>
       </c>
-      <c r="C3">
-        <f>LEN(A3)</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="4">
         <v>44933</v>
       </c>
-      <c r="C4">
-        <f>LEN(A4)</f>
-        <v>864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>44929</v>
       </c>
-      <c r="C5">
-        <f>LEN(A5)</f>
-        <v>814</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="4">
         <v>44933</v>
       </c>
-      <c r="C6">
-        <f>LEN(A6)</f>
-        <v>785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="4">
         <v>44931</v>
       </c>
-      <c r="C7">
-        <f>LEN(A7)</f>
-        <v>765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="4">
         <v>44933</v>
       </c>
-      <c r="C8">
-        <f>LEN(A8)</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="4">
         <v>44932</v>
       </c>
-      <c r="C9">
-        <f>LEN(A9)</f>
-        <v>722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="4">
         <v>44928</v>
       </c>
-      <c r="C10">
-        <f>LEN(A10)</f>
-        <v>682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="4">
         <v>44930</v>
       </c>
-      <c r="C11">
-        <f>LEN(A11)</f>
-        <v>674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4">
         <v>44929</v>
       </c>
-      <c r="C12">
-        <f>LEN(A12)</f>
-        <v>659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4">
         <v>44929</v>
       </c>
-      <c r="C13">
-        <f>LEN(A13)</f>
-        <v>607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4">
         <v>44930</v>
       </c>
-      <c r="C14">
-        <f>LEN(A14)</f>
-        <v>604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="4">
         <v>44931</v>
       </c>
-      <c r="C15">
-        <f>LEN(A15)</f>
-        <v>586</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="4">
         <v>44933</v>
       </c>
-      <c r="C16">
-        <f>LEN(A16)</f>
-        <v>585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="4">
         <v>44933</v>
       </c>
-      <c r="C17">
-        <f>LEN(A17)</f>
-        <v>581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="4">
         <v>44933</v>
       </c>
-      <c r="C18">
-        <f>LEN(A18)</f>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="4">
         <v>44934</v>
       </c>
-      <c r="C19">
-        <f>LEN(A19)</f>
-        <v>575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="4">
         <v>44931</v>
       </c>
-      <c r="C20">
-        <f>LEN(A20)</f>
-        <v>564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="4">
         <v>44931</v>
       </c>
-      <c r="C21">
-        <f>LEN(A21)</f>
-        <v>563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="4">
         <v>44933</v>
       </c>
-      <c r="C22">
-        <f>LEN(A22)</f>
-        <v>556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="4">
         <v>44933</v>
       </c>
-      <c r="C23">
-        <f>LEN(A23)</f>
-        <v>554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="4">
         <v>44927</v>
       </c>
-      <c r="C24">
-        <f>LEN(A24)</f>
-        <v>532</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="4">
         <v>44932</v>
       </c>
-      <c r="C25">
-        <f>LEN(A25)</f>
-        <v>499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="4">
         <v>44931</v>
       </c>
-      <c r="C26">
-        <f>LEN(A26)</f>
-        <v>479</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="4">
         <v>44931</v>
       </c>
-      <c r="C27">
-        <f>LEN(A27)</f>
-        <v>454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="4">
         <v>44932</v>
       </c>
-      <c r="C28">
-        <f>LEN(A28)</f>
-        <v>454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="4">
         <v>44931</v>
       </c>
-      <c r="C29">
-        <f>LEN(A29)</f>
-        <v>452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="4">
         <v>44933</v>
       </c>
-      <c r="C30">
-        <f>LEN(A30)</f>
-        <v>443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="4">
         <v>44933</v>
       </c>
-      <c r="C31">
-        <f>LEN(A31)</f>
-        <v>443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B32" s="4">
         <v>44933</v>
       </c>
-      <c r="C32">
-        <f>LEN(A32)</f>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="4">
         <v>44933</v>
       </c>
-      <c r="C33">
-        <f>LEN(A33)</f>
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="4">
         <v>44931</v>
       </c>
-      <c r="C34">
-        <f>LEN(A34)</f>
-        <v>432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="4">
         <v>44933</v>
       </c>
-      <c r="C35">
-        <f>LEN(A35)</f>
-        <v>430</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="4">
         <v>44933</v>
       </c>
-      <c r="C36">
-        <f>LEN(A36)</f>
-        <v>425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="4">
         <v>44933</v>
       </c>
-      <c r="C37">
-        <f>LEN(A37)</f>
-        <v>421</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="4">
         <v>44930</v>
       </c>
-      <c r="C38">
-        <f>LEN(A38)</f>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="4">
         <v>44931</v>
       </c>
-      <c r="C39">
-        <f>LEN(A39)</f>
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="4">
         <v>44932</v>
       </c>
-      <c r="C40">
-        <f>LEN(A40)</f>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="4">
         <v>44931</v>
       </c>
-      <c r="C41">
-        <f>LEN(A41)</f>
-        <v>394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="4">
         <v>44929</v>
       </c>
-      <c r="C42">
-        <f>LEN(A42)</f>
-        <v>393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="4">
         <v>44934</v>
       </c>
-      <c r="C43">
-        <f>LEN(A43)</f>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B44" s="4">
         <v>44929</v>
       </c>
-      <c r="C44">
-        <f>LEN(A44)</f>
-        <v>383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B45" s="4">
         <v>44934</v>
       </c>
-      <c r="C45">
-        <f>LEN(A45)</f>
-        <v>383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="4">
         <v>44934</v>
       </c>
-      <c r="C46">
-        <f>LEN(A46)</f>
-        <v>379</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="4">
         <v>44931</v>
       </c>
-      <c r="C47">
-        <f>LEN(A47)</f>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="4">
         <v>44931</v>
       </c>
-      <c r="C48">
-        <f>LEN(A48)</f>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4">
         <v>44932</v>
       </c>
-      <c r="C49">
-        <f>LEN(A49)</f>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B50" s="4">
         <v>44933</v>
       </c>
-      <c r="C50">
-        <f>LEN(A50)</f>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B51" s="4">
         <v>44931</v>
       </c>
-      <c r="C51">
-        <f>LEN(A51)</f>
-        <v>337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="4">
         <v>44930</v>
       </c>
-      <c r="C52">
-        <f>LEN(A52)</f>
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="4">
         <v>44931</v>
       </c>
-      <c r="C53">
-        <f>LEN(A53)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="4">
         <v>44931</v>
       </c>
-      <c r="C54">
-        <f>LEN(A54)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="4">
         <v>44930</v>
       </c>
-      <c r="C55">
-        <f>LEN(A55)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="4">
         <v>44931</v>
       </c>
-      <c r="C56">
-        <f>LEN(A56)</f>
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B57" s="4">
         <v>44934</v>
       </c>
-      <c r="C57">
-        <f>LEN(A57)</f>
-        <v>316</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="4">
         <v>44933</v>
       </c>
-      <c r="C58">
-        <f>LEN(A58)</f>
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="4">
         <v>44931</v>
       </c>
-      <c r="C59">
-        <f>LEN(A59)</f>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="4">
         <v>44933</v>
       </c>
-      <c r="C60">
-        <f>LEN(A60)</f>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="4">
         <v>44933</v>
       </c>
-      <c r="C61">
-        <f>LEN(A61)</f>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="4">
         <v>44933</v>
       </c>
-      <c r="C62">
-        <f>LEN(A62)</f>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="4">
         <v>44928</v>
       </c>
-      <c r="C63">
-        <f>LEN(A63)</f>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="4">
         <v>44933</v>
       </c>
-      <c r="C64">
-        <f>LEN(A64)</f>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="4">
         <v>44933</v>
       </c>
-      <c r="C65">
-        <f>LEN(A65)</f>
-        <v>281</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="4">
         <v>44932</v>
       </c>
-      <c r="C66">
-        <f>LEN(A66)</f>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B67" s="4">
         <v>44933</v>
       </c>
-      <c r="C67">
-        <f>LEN(A67)</f>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B68" s="4">
         <v>44931</v>
       </c>
-      <c r="C68">
-        <f>LEN(A68)</f>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="4">
         <v>44933</v>
       </c>
-      <c r="C69">
-        <f>LEN(A69)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="4">
         <v>44931</v>
       </c>
-      <c r="C70">
-        <f>LEN(A70)</f>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="4">
         <v>44930</v>
       </c>
-      <c r="C71">
-        <f>LEN(A71)</f>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B72" s="4">
         <v>44932</v>
       </c>
-      <c r="C72">
-        <f>LEN(A72)</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B73" s="4">
         <v>44933</v>
       </c>
-      <c r="C73">
-        <f>LEN(A73)</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B74" s="4">
         <v>44931</v>
       </c>
-      <c r="C74">
-        <f>LEN(A74)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B75" s="4">
         <v>44932</v>
       </c>
-      <c r="C75">
-        <f>LEN(A75)</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B76" s="4">
         <v>44930</v>
       </c>
-      <c r="C76">
-        <f>LEN(A76)</f>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B77" s="4">
         <v>44931</v>
       </c>
-      <c r="C77">
-        <f>LEN(A77)</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B78" s="4">
         <v>44934</v>
       </c>
-      <c r="C78">
-        <f>LEN(A78)</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="4">
         <v>44929</v>
       </c>
-      <c r="C79">
-        <f>LEN(A79)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B80" s="4">
         <v>44931</v>
       </c>
-      <c r="C80">
-        <f>LEN(A80)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="4">
         <v>44929</v>
       </c>
-      <c r="C81">
-        <f>LEN(A81)</f>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B82" s="4">
         <v>44932</v>
       </c>
-      <c r="C82">
-        <f>LEN(A82)</f>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B83" s="4">
         <v>44933</v>
       </c>
-      <c r="C83">
-        <f>LEN(A83)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="4">
         <v>44927</v>
       </c>
-      <c r="C84">
-        <f>LEN(A84)</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B85" s="4">
         <v>44928</v>
       </c>
-      <c r="C85">
-        <f>LEN(A85)</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B86" s="4">
         <v>44932</v>
       </c>
-      <c r="C86">
-        <f>LEN(A86)</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B87" s="4">
         <v>44931</v>
       </c>
-      <c r="C87">
-        <f>LEN(A87)</f>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B88" s="4">
         <v>44933</v>
       </c>
-      <c r="C88">
-        <f>LEN(A88)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="4">
         <v>44928</v>
       </c>
-      <c r="C89">
-        <f>LEN(A89)</f>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B90" s="4">
         <v>44931</v>
       </c>
-      <c r="C90">
-        <f>LEN(A90)</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B91" s="4">
         <v>44931</v>
       </c>
-      <c r="C91">
-        <f>LEN(A91)</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B92" s="4">
         <v>44932</v>
       </c>
-      <c r="C92">
-        <f>LEN(A92)</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="4">
         <v>44929</v>
       </c>
-      <c r="C93">
-        <f>LEN(A93)</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B94" s="4">
         <v>44933</v>
       </c>
-      <c r="C94">
-        <f>LEN(A94)</f>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B95" s="4">
         <v>44934</v>
       </c>
-      <c r="C95">
-        <f>LEN(A95)</f>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B96" s="4">
         <v>44930</v>
       </c>
-      <c r="C96">
-        <f>LEN(A96)</f>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B97" s="4">
         <v>44931</v>
       </c>
-      <c r="C97">
-        <f>LEN(A97)</f>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="4">
         <v>44929</v>
       </c>
-      <c r="C98">
-        <f>LEN(A98)</f>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B99" s="4">
         <v>44933</v>
       </c>
-      <c r="C99">
-        <f>LEN(A99)</f>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B100" s="4">
         <v>44933</v>
       </c>
-      <c r="C100">
-        <f>LEN(A100)</f>
-        <v>202</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C238">
-      <sortCondition descending="1" ref="C1:C238"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>